--- a/data/abutments_fired/abutments_fired_info.xlsx
+++ b/data/abutments_fired/abutments_fired_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_13.04.2022\abutments_fired\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_20.04.2022\abutments_fired\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A65CF2-93B5-42DC-B982-7366F4DF2CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00F6E90-7A9A-46E5-9F0C-AAC8CE096F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="220">
   <si>
     <t>Тип</t>
   </si>
@@ -58,22 +58,13 @@
     <t>ПЛАН</t>
   </si>
   <si>
-    <t>12 апр.</t>
-  </si>
-  <si>
-    <t>13 апр.</t>
-  </si>
-  <si>
-    <t>14 апр.</t>
-  </si>
-  <si>
-    <t>15 апр.</t>
-  </si>
-  <si>
-    <t>16 апр.</t>
-  </si>
-  <si>
-    <t>17 апр.</t>
+    <t>20 апр.</t>
+  </si>
+  <si>
+    <t>21 апр.</t>
+  </si>
+  <si>
+    <t>22 апр.</t>
   </si>
   <si>
     <t>ОСТ</t>
@@ -851,6 +842,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -859,12 +856,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1226,7 +1217,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AH117"/>
+  <dimension ref="A1:AE117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A3"/>
@@ -1239,7 +1230,8 @@
     <col min="6" max="7" width="7" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="1" customWidth="1"/>
     <col min="9" max="10" width="8.1640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="7.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.1640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="6.1640625" style="1" customWidth="1"/>
     <col min="15" max="16" width="8.1640625" style="1" customWidth="1" outlineLevel="1"/>
@@ -1251,13 +1243,13 @@
     <col min="23" max="23" width="6.1640625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="24" max="24" width="7.83203125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="7.1640625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="6.1640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="11.6640625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="27" max="27" width="8.1640625" style="1" customWidth="1"/>
     <col min="28" max="28" width="7.6640625" style="1" customWidth="1"/>
-    <col min="29" max="34" width="13.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="31" width="13.6640625" style="1" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1319,17 +1311,8 @@
       <c r="AE1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1339,61 +1322,52 @@
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
       <c r="R2" s="18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V2" s="18"/>
       <c r="W2" s="18"/>
       <c r="X2" s="18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y2" s="18"/>
       <c r="Z2" s="18"/>
       <c r="AA2" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AB2" s="19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AC2" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AD2" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE2" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF2" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG2" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH2" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -1403,92 +1377,89 @@
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA3" s="17"/>
       <c r="AB3" s="20"/>
       <c r="AC3" s="20"/>
       <c r="AD3" s="20"/>
       <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-    </row>
-    <row r="4" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I4" s="5">
         <v>220</v>
@@ -1549,40 +1520,37 @@
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-    </row>
-    <row r="5" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I5" s="5">
-        <v>65</v>
+        <v>920</v>
       </c>
       <c r="J5" s="5">
-        <v>65</v>
+        <v>920</v>
       </c>
       <c r="K5" s="5">
         <v>0</v>
@@ -1597,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="O5" s="5">
-        <v>2</v>
+        <v>857</v>
       </c>
       <c r="P5" s="5">
-        <v>2</v>
+        <v>857</v>
       </c>
       <c r="Q5" s="5">
         <v>0</v>
@@ -1637,67 +1605,64 @@
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-    </row>
-    <row r="6" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I6" s="5">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="J6" s="5">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="K6" s="5">
         <v>0</v>
       </c>
       <c r="L6" s="5">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="M6" s="5">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="N6" s="5">
         <v>0</v>
       </c>
       <c r="O6" s="8">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="P6" s="5">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="5">
         <v>0</v>
       </c>
       <c r="R6" s="8">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="S6" s="5">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="T6" s="5">
         <v>0</v>
@@ -1725,34 +1690,31 @@
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-    </row>
-    <row r="7" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I7" s="5">
         <v>68</v>
@@ -1813,34 +1775,31 @@
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-    </row>
-    <row r="8" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I8" s="5">
         <v>103</v>
@@ -1901,49 +1860,46 @@
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-    </row>
-    <row r="9" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I9" s="5">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="J9" s="5">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="K9" s="5">
         <v>0</v>
       </c>
       <c r="L9" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M9" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N9" s="5">
         <v>0</v>
@@ -1967,19 +1923,19 @@
         <v>0</v>
       </c>
       <c r="U9" s="5">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V9" s="5">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W9" s="5">
         <v>0</v>
       </c>
       <c r="X9" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y9" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z9" s="5">
         <v>0</v>
@@ -1989,49 +1945,46 @@
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-    </row>
-    <row r="10" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I10" s="5">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="J10" s="5">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="K10" s="5">
         <v>0</v>
       </c>
       <c r="L10" s="5">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="M10" s="5">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="N10" s="5">
         <v>0</v>
@@ -2044,98 +1997,105 @@
         <v>0</v>
       </c>
       <c r="R10" s="8">
+        <v>10</v>
+      </c>
+      <c r="S10" s="5">
+        <v>10</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5">
+        <v>606</v>
+      </c>
+      <c r="V10" s="5">
+        <v>606</v>
+      </c>
+      <c r="W10" s="5">
+        <v>0</v>
+      </c>
+      <c r="X10" s="5">
+        <v>195</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>195</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>8</v>
+      </c>
+      <c r="AB10" s="10">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="11">
         <v>20</v>
       </c>
-      <c r="S10" s="5">
-        <v>20</v>
-      </c>
-      <c r="T10" s="5">
-        <v>0</v>
-      </c>
-      <c r="U10" s="5">
-        <v>651</v>
-      </c>
-      <c r="V10" s="5">
-        <v>651</v>
-      </c>
-      <c r="W10" s="5">
-        <v>0</v>
-      </c>
-      <c r="X10" s="5">
-        <v>196</v>
-      </c>
-      <c r="Y10" s="5">
-        <v>196</v>
-      </c>
-      <c r="Z10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-    </row>
-    <row r="11" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD10" s="11">
+        <v>21</v>
+      </c>
+      <c r="AE10" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I11" s="5">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="J11" s="5">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K11" s="5">
         <v>0</v>
       </c>
       <c r="L11" s="5">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="M11" s="5">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="N11" s="5">
         <v>0</v>
       </c>
       <c r="O11" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P11" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="5">
         <v>0</v>
       </c>
       <c r="R11" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S11" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T11" s="5">
         <v>0</v>
@@ -2150,10 +2110,10 @@
         <v>0</v>
       </c>
       <c r="X11" s="5">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="Y11" s="5">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="Z11" s="5">
         <v>0</v>
@@ -2163,34 +2123,31 @@
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-    </row>
-    <row r="12" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="I12" s="5">
         <v>2</v>
@@ -2249,49 +2206,46 @@
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-    </row>
-    <row r="13" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I13" s="5">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="J13" s="5">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="K13" s="5">
         <v>0</v>
       </c>
       <c r="L13" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M13" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N13" s="5">
         <v>0</v>
@@ -2315,19 +2269,19 @@
         <v>0</v>
       </c>
       <c r="U13" s="5">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="V13" s="5">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="W13" s="5">
         <v>0</v>
       </c>
       <c r="X13" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Y13" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Z13" s="5">
         <v>0</v>
@@ -2337,49 +2291,46 @@
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-    </row>
-    <row r="14" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="11">
-        <v>1017</v>
-      </c>
-      <c r="J14" s="11">
-        <v>1016</v>
+        <v>29</v>
+      </c>
+      <c r="I14" s="13">
+        <v>1015</v>
+      </c>
+      <c r="J14" s="13">
+        <v>1014</v>
       </c>
       <c r="K14" s="5">
         <v>1</v>
       </c>
       <c r="L14" s="5">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M14" s="5">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N14" s="5">
         <v>0</v>
@@ -2403,19 +2354,19 @@
         <v>0</v>
       </c>
       <c r="U14" s="5">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="V14" s="5">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="W14" s="5">
         <v>0</v>
       </c>
       <c r="X14" s="5">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Y14" s="5">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Z14" s="5">
         <v>0</v>
@@ -2425,34 +2376,31 @@
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-    </row>
-    <row r="15" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I15" s="5">
         <v>37</v>
@@ -2511,49 +2459,46 @@
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-    </row>
-    <row r="16" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I16" s="5">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J16" s="5">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K16" s="5">
         <v>1</v>
       </c>
       <c r="L16" s="5">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M16" s="5">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N16" s="5">
         <v>0</v>
@@ -2577,19 +2522,19 @@
         <v>0</v>
       </c>
       <c r="U16" s="5">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="V16" s="5">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="W16" s="5">
         <v>1</v>
       </c>
       <c r="X16" s="5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y16" s="5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z16" s="5">
         <v>0</v>
@@ -2599,67 +2544,64 @@
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-    </row>
-    <row r="17" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="F17" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I17" s="5">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="J17" s="5">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="K17" s="5">
         <v>0</v>
       </c>
       <c r="L17" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M17" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N17" s="5">
         <v>0</v>
       </c>
       <c r="O17" s="5">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="P17" s="5">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="Q17" s="5">
         <v>0</v>
       </c>
       <c r="R17" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S17" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T17" s="5">
         <v>0</v>
@@ -2687,34 +2629,31 @@
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-    </row>
-    <row r="18" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I18" s="5">
         <v>41</v>
@@ -2775,85 +2714,82 @@
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-    </row>
-    <row r="19" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="5">
+        <v>643</v>
+      </c>
+      <c r="J19" s="5">
+        <v>643</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>91</v>
+      </c>
+      <c r="M19" s="5">
+        <v>86</v>
+      </c>
+      <c r="N19" s="5">
+        <v>5</v>
+      </c>
+      <c r="O19" s="5">
         <v>31</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="P19" s="5">
         <v>31</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="5">
-        <v>694</v>
-      </c>
-      <c r="J19" s="5">
-        <v>694</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0</v>
-      </c>
-      <c r="L19" s="5">
-        <v>44</v>
-      </c>
-      <c r="M19" s="5">
-        <v>44</v>
-      </c>
-      <c r="N19" s="5">
-        <v>0</v>
-      </c>
-      <c r="O19" s="5">
-        <v>38</v>
-      </c>
-      <c r="P19" s="5">
-        <v>38</v>
-      </c>
       <c r="Q19" s="5">
         <v>0</v>
       </c>
       <c r="R19" s="5">
-        <v>0</v>
-      </c>
-      <c r="S19" s="6">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="S19" s="5">
+        <v>2</v>
       </c>
       <c r="T19" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U19" s="5">
-        <v>656</v>
+        <v>612</v>
       </c>
       <c r="V19" s="5">
-        <v>656</v>
+        <v>612</v>
       </c>
       <c r="W19" s="5">
         <v>0</v>
       </c>
       <c r="X19" s="5">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="Y19" s="5">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="Z19" s="5">
         <v>0</v>
@@ -2863,34 +2799,31 @@
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-    </row>
-    <row r="20" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I20" s="5">
         <v>468</v>
@@ -2951,49 +2884,46 @@
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-    </row>
-    <row r="21" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I21" s="5">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J21" s="5">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K21" s="5">
         <v>5</v>
       </c>
       <c r="L21" s="5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M21" s="5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N21" s="5">
         <v>0</v>
@@ -3017,19 +2947,19 @@
         <v>0</v>
       </c>
       <c r="U21" s="5">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V21" s="5">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W21" s="5">
         <v>0</v>
       </c>
       <c r="X21" s="5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y21" s="5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z21" s="5">
         <v>0</v>
@@ -3039,34 +2969,31 @@
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-    </row>
-    <row r="22" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="I22" s="5">
         <v>354</v>
@@ -3127,34 +3054,31 @@
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-    </row>
-    <row r="23" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I23" s="8">
         <v>0</v>
@@ -3204,45 +3128,36 @@
       <c r="Z23" s="5">
         <v>0</v>
       </c>
-      <c r="AA23" s="5">
-        <v>3</v>
-      </c>
-      <c r="AB23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="14">
-        <v>12</v>
-      </c>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-    </row>
-    <row r="24" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="E24" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I24" s="5">
         <v>14</v>
@@ -3296,80 +3211,69 @@
       <c r="Z24" s="5">
         <v>0</v>
       </c>
-      <c r="AA24" s="5">
-        <v>5</v>
-      </c>
-      <c r="AB24" s="13">
-        <v>2</v>
-      </c>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
       <c r="AC24" s="4"/>
-      <c r="AD24" s="14">
-        <v>13</v>
-      </c>
-      <c r="AE24" s="14">
-        <v>14</v>
-      </c>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
-      <c r="AH24" s="4"/>
-    </row>
-    <row r="25" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+    </row>
+    <row r="25" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I25" s="5">
-        <v>575</v>
+        <v>544</v>
       </c>
       <c r="J25" s="5">
-        <v>575</v>
+        <v>544</v>
       </c>
       <c r="K25" s="5">
         <v>0</v>
       </c>
       <c r="L25" s="5">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="M25" s="5">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N25" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O25" s="5">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="P25" s="5">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="Q25" s="5">
         <v>0</v>
       </c>
       <c r="R25" s="5">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="S25" s="5">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="T25" s="5">
         <v>0</v>
@@ -3384,80 +3288,77 @@
         <v>0</v>
       </c>
       <c r="X25" s="5">
-        <v>15</v>
-      </c>
-      <c r="Y25" s="5">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>0</v>
       </c>
       <c r="Z25" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
-      <c r="AH25" s="4"/>
-    </row>
-    <row r="26" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="F26" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I26" s="5">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="J26" s="5">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="K26" s="5">
         <v>1</v>
       </c>
       <c r="L26" s="5">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M26" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O26" s="5">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P26" s="5">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="5">
         <v>0</v>
       </c>
       <c r="R26" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S26" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T26" s="5">
         <v>0</v>
@@ -3472,47 +3373,44 @@
         <v>1</v>
       </c>
       <c r="X26" s="5">
-        <v>12</v>
-      </c>
-      <c r="Y26" s="5">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>0</v>
       </c>
       <c r="Z26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-    </row>
-    <row r="27" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I27" s="5">
         <v>68</v>
@@ -3524,13 +3422,13 @@
         <v>0</v>
       </c>
       <c r="L27" s="5">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M27" s="5">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="5">
         <v>32</v>
@@ -3542,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="R27" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S27" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T27" s="5">
         <v>0</v>
@@ -3560,72 +3458,69 @@
         <v>0</v>
       </c>
       <c r="X27" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Y27" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Z27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-    </row>
-    <row r="28" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="5">
         <v>26</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="5">
-        <v>27</v>
       </c>
       <c r="J28" s="5">
         <v>26</v>
       </c>
       <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5">
         <v>1</v>
       </c>
-      <c r="L28" s="5">
-        <v>2</v>
-      </c>
-      <c r="M28" s="5">
-        <v>2</v>
+      <c r="M28" s="6">
+        <v>0</v>
       </c>
       <c r="N28" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="5">
-        <v>1</v>
-      </c>
-      <c r="P28" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="7"/>
       <c r="Q28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="5">
         <v>0</v>
@@ -3646,80 +3541,77 @@
         <v>0</v>
       </c>
       <c r="X28" s="5">
-        <v>2</v>
-      </c>
-      <c r="Y28" s="5">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="6">
+        <v>0</v>
       </c>
       <c r="Z28" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-    </row>
-    <row r="29" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="F29" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I29" s="5">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J29" s="5">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K29" s="5">
         <v>0</v>
       </c>
       <c r="L29" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M29" s="5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N29" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O29" s="5">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P29" s="5">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q29" s="5">
         <v>0</v>
       </c>
       <c r="R29" s="5">
-        <v>7</v>
-      </c>
-      <c r="S29" s="5">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S29" s="6">
+        <v>0</v>
       </c>
       <c r="T29" s="5">
         <v>0</v>
@@ -3734,47 +3626,44 @@
         <v>0</v>
       </c>
       <c r="X29" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y29" s="5">
         <v>2</v>
       </c>
       <c r="Z29" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-    </row>
-    <row r="30" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I30" s="5">
         <v>29</v>
@@ -3786,15 +3675,15 @@
         <v>0</v>
       </c>
       <c r="L30" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M30" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N30" s="5">
         <v>0</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O30" s="5">
         <v>2</v>
       </c>
       <c r="P30" s="5">
@@ -3803,11 +3692,11 @@
       <c r="Q30" s="5">
         <v>0</v>
       </c>
-      <c r="R30" s="8">
-        <v>3</v>
-      </c>
-      <c r="S30" s="5">
-        <v>3</v>
+      <c r="R30" s="5">
+        <v>0</v>
+      </c>
+      <c r="S30" s="6">
+        <v>0</v>
       </c>
       <c r="T30" s="5">
         <v>0</v>
@@ -3835,122 +3724,116 @@
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
-      <c r="AF30" s="4"/>
-      <c r="AG30" s="4"/>
-      <c r="AH30" s="4"/>
-    </row>
-    <row r="31" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I31" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J31" s="5">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K31" s="5">
         <v>1</v>
       </c>
       <c r="L31" s="5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M31" s="5">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N31" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O31" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P31" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q31" s="5">
         <v>1</v>
       </c>
       <c r="R31" s="5">
-        <v>5</v>
-      </c>
-      <c r="S31" s="5">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="S31" s="6">
+        <v>0</v>
       </c>
       <c r="T31" s="5">
         <v>0</v>
       </c>
       <c r="U31" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V31" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="W31" s="5">
         <v>0</v>
       </c>
       <c r="X31" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y31" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z31" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
-      <c r="AF31" s="4"/>
-      <c r="AG31" s="4"/>
-      <c r="AH31" s="4"/>
-    </row>
-    <row r="32" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I32" s="5">
         <v>60</v>
@@ -3962,15 +3845,15 @@
         <v>0</v>
       </c>
       <c r="L32" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M32" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N32" s="5">
         <v>0</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O32" s="5">
         <v>5</v>
       </c>
       <c r="P32" s="5">
@@ -3979,11 +3862,11 @@
       <c r="Q32" s="5">
         <v>0</v>
       </c>
-      <c r="R32" s="8">
-        <v>5</v>
-      </c>
-      <c r="S32" s="5">
-        <v>5</v>
+      <c r="R32" s="5">
+        <v>0</v>
+      </c>
+      <c r="S32" s="6">
+        <v>0</v>
       </c>
       <c r="T32" s="5">
         <v>0</v>
@@ -4011,58 +3894,55 @@
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
       <c r="AE32" s="4"/>
-      <c r="AF32" s="4"/>
-      <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
-    </row>
-    <row r="33" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I33" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J33" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K33" s="5">
         <v>0</v>
       </c>
       <c r="L33" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M33" s="6">
         <v>0</v>
       </c>
       <c r="N33" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O33" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P33" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q33" s="5">
         <v>0</v>
@@ -4076,55 +3956,52 @@
       <c r="T33" s="5">
         <v>0</v>
       </c>
-      <c r="U33" s="5">
-        <v>0</v>
-      </c>
-      <c r="V33" s="7"/>
+      <c r="U33" s="8">
+        <v>0</v>
+      </c>
+      <c r="V33" s="9"/>
       <c r="W33" s="5">
         <v>0</v>
       </c>
-      <c r="X33" s="5">
-        <v>0</v>
+      <c r="X33" s="8">
+        <v>2</v>
       </c>
       <c r="Y33" s="6">
         <v>0</v>
       </c>
       <c r="Z33" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
-      <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
-    </row>
-    <row r="34" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I34" s="5">
         <v>83</v>
@@ -4185,34 +4062,31 @@
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
-    </row>
-    <row r="35" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="F35" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I35" s="5">
         <v>84</v>
@@ -4273,34 +4147,31 @@
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
-    </row>
-    <row r="36" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I36" s="5">
         <v>67</v>
@@ -4361,34 +4232,31 @@
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
       <c r="AE36" s="4"/>
-      <c r="AF36" s="4"/>
-      <c r="AG36" s="4"/>
-      <c r="AH36" s="4"/>
-    </row>
-    <row r="37" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="E37" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I37" s="5">
         <v>67</v>
@@ -4400,10 +4268,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="5">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M37" s="5">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="N37" s="5">
         <v>0</v>
@@ -4436,10 +4304,10 @@
         <v>0</v>
       </c>
       <c r="X37" s="5">
-        <v>24</v>
-      </c>
-      <c r="Y37" s="5">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="6">
+        <v>0</v>
       </c>
       <c r="Z37" s="5">
         <v>0</v>
@@ -4449,34 +4317,31 @@
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
-      <c r="AF37" s="4"/>
-      <c r="AG37" s="4"/>
-      <c r="AH37" s="4"/>
-    </row>
-    <row r="38" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I38" s="5">
         <v>450</v>
@@ -4537,34 +4402,31 @@
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
-      <c r="AF38" s="4"/>
-      <c r="AG38" s="4"/>
-      <c r="AH38" s="4"/>
-    </row>
-    <row r="39" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I39" s="5">
         <v>27</v>
@@ -4623,34 +4485,31 @@
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
-      <c r="AG39" s="4"/>
-      <c r="AH39" s="4"/>
-    </row>
-    <row r="40" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="F40" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I40" s="5">
         <v>27</v>
@@ -4662,10 +4521,10 @@
         <v>0</v>
       </c>
       <c r="L40" s="5">
-        <v>20</v>
-      </c>
-      <c r="M40" s="5">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="M40" s="6">
+        <v>0</v>
       </c>
       <c r="N40" s="5">
         <v>0</v>
@@ -4696,10 +4555,10 @@
         <v>0</v>
       </c>
       <c r="X40" s="5">
-        <v>20</v>
-      </c>
-      <c r="Y40" s="5">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="6">
+        <v>0</v>
       </c>
       <c r="Z40" s="5">
         <v>0</v>
@@ -4709,34 +4568,31 @@
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
-      <c r="AF40" s="4"/>
-      <c r="AG40" s="4"/>
-      <c r="AH40" s="4"/>
-    </row>
-    <row r="41" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I41" s="5">
         <v>101</v>
@@ -4795,34 +4651,31 @@
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
-      <c r="AF41" s="4"/>
-      <c r="AG41" s="4"/>
-      <c r="AH41" s="4"/>
-    </row>
-    <row r="42" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="E42" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I42" s="5">
         <v>159</v>
@@ -4883,34 +4736,31 @@
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
-      <c r="AF42" s="4"/>
-      <c r="AG42" s="4"/>
-      <c r="AH42" s="4"/>
-    </row>
-    <row r="43" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I43" s="5">
         <v>87</v>
@@ -4922,10 +4772,10 @@
         <v>0</v>
       </c>
       <c r="L43" s="5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M43" s="5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N43" s="5">
         <v>0</v>
@@ -4958,10 +4808,10 @@
         <v>0</v>
       </c>
       <c r="X43" s="5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Y43" s="5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Z43" s="5">
         <v>0</v>
@@ -4971,34 +4821,31 @@
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
-      <c r="AF43" s="4"/>
-      <c r="AG43" s="4"/>
-      <c r="AH43" s="4"/>
-    </row>
-    <row r="44" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I44" s="5">
         <v>143</v>
@@ -5059,34 +4906,31 @@
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
-      <c r="AF44" s="4"/>
-      <c r="AG44" s="4"/>
-      <c r="AH44" s="4"/>
-    </row>
-    <row r="45" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I45" s="5">
         <v>473</v>
@@ -5147,173 +4991,167 @@
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
       <c r="AE45" s="4"/>
-      <c r="AF45" s="4"/>
-      <c r="AG45" s="4"/>
-      <c r="AH45" s="4"/>
-    </row>
-    <row r="46" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I46" s="11">
-        <v>2325</v>
-      </c>
-      <c r="J46" s="11">
-        <v>2319</v>
+        <v>29</v>
+      </c>
+      <c r="I46" s="13">
+        <v>2175</v>
+      </c>
+      <c r="J46" s="13">
+        <v>2169</v>
       </c>
       <c r="K46" s="5">
         <v>6</v>
       </c>
       <c r="L46" s="5">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="M46" s="5">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="N46" s="5">
-        <v>70</v>
-      </c>
-      <c r="O46" s="11">
-        <v>1054</v>
-      </c>
-      <c r="P46" s="11">
-        <v>1054</v>
+        <v>96</v>
+      </c>
+      <c r="O46" s="13">
+        <v>1014</v>
+      </c>
+      <c r="P46" s="13">
+        <v>1014</v>
       </c>
       <c r="Q46" s="5">
         <v>0</v>
       </c>
       <c r="R46" s="5">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="S46" s="5">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="T46" s="5">
-        <v>50</v>
-      </c>
-      <c r="U46" s="11">
-        <v>1271</v>
-      </c>
-      <c r="V46" s="11">
-        <v>1265</v>
+        <v>90</v>
+      </c>
+      <c r="U46" s="13">
+        <v>1161</v>
+      </c>
+      <c r="V46" s="13">
+        <v>1155</v>
       </c>
       <c r="W46" s="5">
         <v>6</v>
       </c>
       <c r="X46" s="5">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="Y46" s="5">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="Z46" s="5">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
       <c r="AE46" s="4"/>
-      <c r="AF46" s="4"/>
-      <c r="AG46" s="4"/>
-      <c r="AH46" s="4"/>
-    </row>
-    <row r="47" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="13">
+        <v>2253</v>
+      </c>
+      <c r="J47" s="13">
+        <v>2203</v>
+      </c>
+      <c r="K47" s="5">
+        <v>50</v>
+      </c>
+      <c r="L47" s="5">
+        <v>173</v>
+      </c>
+      <c r="M47" s="5">
         <v>113</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I47" s="11">
-        <v>2227</v>
-      </c>
-      <c r="J47" s="11">
-        <v>2227</v>
-      </c>
-      <c r="K47" s="5">
-        <v>0</v>
-      </c>
-      <c r="L47" s="5">
-        <v>230</v>
-      </c>
-      <c r="M47" s="5">
-        <v>120</v>
-      </c>
       <c r="N47" s="5">
-        <v>110</v>
-      </c>
-      <c r="O47" s="11">
-        <v>1765</v>
-      </c>
-      <c r="P47" s="11">
-        <v>1765</v>
+        <v>60</v>
+      </c>
+      <c r="O47" s="13">
+        <v>1799</v>
+      </c>
+      <c r="P47" s="13">
+        <v>1749</v>
       </c>
       <c r="Q47" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R47" s="5">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="S47" s="5">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="T47" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="U47" s="5">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="V47" s="5">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="W47" s="5">
         <v>0</v>
       </c>
       <c r="X47" s="5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y47" s="5">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Z47" s="5">
         <v>10</v>
@@ -5323,85 +5161,82 @@
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="4"/>
-      <c r="AF47" s="4"/>
-      <c r="AG47" s="4"/>
-      <c r="AH47" s="4"/>
-    </row>
-    <row r="48" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" s="11">
-        <v>1724</v>
-      </c>
-      <c r="J48" s="11">
-        <v>1724</v>
+        <v>29</v>
+      </c>
+      <c r="I48" s="13">
+        <v>1705</v>
+      </c>
+      <c r="J48" s="13">
+        <v>1705</v>
       </c>
       <c r="K48" s="5">
         <v>0</v>
       </c>
       <c r="L48" s="5">
+        <v>91</v>
+      </c>
+      <c r="M48" s="5">
+        <v>75</v>
+      </c>
+      <c r="N48" s="5">
+        <v>16</v>
+      </c>
+      <c r="O48" s="13">
+        <v>1363</v>
+      </c>
+      <c r="P48" s="13">
+        <v>1363</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>0</v>
+      </c>
+      <c r="R48" s="5">
+        <v>12</v>
+      </c>
+      <c r="S48" s="6">
+        <v>0</v>
+      </c>
+      <c r="T48" s="5">
+        <v>12</v>
+      </c>
+      <c r="U48" s="5">
+        <v>342</v>
+      </c>
+      <c r="V48" s="5">
+        <v>342</v>
+      </c>
+      <c r="W48" s="5">
+        <v>0</v>
+      </c>
+      <c r="X48" s="5">
         <v>79</v>
       </c>
-      <c r="M48" s="5">
-        <v>73</v>
-      </c>
-      <c r="N48" s="5">
-        <v>6</v>
-      </c>
-      <c r="O48" s="11">
-        <v>1373</v>
-      </c>
-      <c r="P48" s="11">
-        <v>1373</v>
-      </c>
-      <c r="Q48" s="5">
-        <v>0</v>
-      </c>
-      <c r="R48" s="5">
-        <v>2</v>
-      </c>
-      <c r="S48" s="6">
-        <v>0</v>
-      </c>
-      <c r="T48" s="5">
-        <v>2</v>
-      </c>
-      <c r="U48" s="5">
-        <v>351</v>
-      </c>
-      <c r="V48" s="5">
-        <v>351</v>
-      </c>
-      <c r="W48" s="5">
-        <v>0</v>
-      </c>
-      <c r="X48" s="5">
-        <v>77</v>
-      </c>
       <c r="Y48" s="5">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z48" s="5">
         <v>4</v>
@@ -5411,34 +5246,31 @@
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
       <c r="AE48" s="4"/>
-      <c r="AF48" s="4"/>
-      <c r="AG48" s="4"/>
-      <c r="AH48" s="4"/>
-    </row>
-    <row r="49" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="F49" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I49" s="5">
         <v>672</v>
@@ -5450,10 +5282,10 @@
         <v>0</v>
       </c>
       <c r="L49" s="5">
-        <v>8</v>
-      </c>
-      <c r="M49" s="5">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0</v>
       </c>
       <c r="N49" s="5">
         <v>6</v>
@@ -5486,10 +5318,10 @@
         <v>0</v>
       </c>
       <c r="X49" s="5">
-        <v>8</v>
-      </c>
-      <c r="Y49" s="5">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="Y49" s="6">
+        <v>0</v>
       </c>
       <c r="Z49" s="5">
         <v>6</v>
@@ -5499,67 +5331,64 @@
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
       <c r="AE49" s="4"/>
-      <c r="AF49" s="4"/>
-      <c r="AG49" s="4"/>
-      <c r="AH49" s="4"/>
-    </row>
-    <row r="50" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I50" s="5">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="J50" s="5">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="K50" s="5">
         <v>0</v>
       </c>
       <c r="L50" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M50" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N50" s="5">
         <v>0</v>
       </c>
       <c r="O50" s="5">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="P50" s="5">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="Q50" s="5">
         <v>0</v>
       </c>
       <c r="R50" s="5">
-        <v>0</v>
-      </c>
-      <c r="S50" s="6">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="S50" s="5">
+        <v>6</v>
       </c>
       <c r="T50" s="5">
         <v>0</v>
@@ -5574,10 +5403,10 @@
         <v>0</v>
       </c>
       <c r="X50" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y50" s="5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="6">
+        <v>0</v>
       </c>
       <c r="Z50" s="5">
         <v>0</v>
@@ -5587,34 +5416,31 @@
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
       <c r="AE50" s="4"/>
-      <c r="AF50" s="4"/>
-      <c r="AG50" s="4"/>
-      <c r="AH50" s="4"/>
-    </row>
-    <row r="51" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I51" s="5">
         <v>65</v>
@@ -5626,10 +5452,10 @@
         <v>0</v>
       </c>
       <c r="L51" s="5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M51" s="5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N51" s="5">
         <v>0</v>
@@ -5660,10 +5486,10 @@
         <v>0</v>
       </c>
       <c r="X51" s="5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Y51" s="5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Z51" s="5">
         <v>0</v>
@@ -5673,49 +5499,46 @@
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
       <c r="AE51" s="4"/>
-      <c r="AF51" s="4"/>
-      <c r="AG51" s="4"/>
-      <c r="AH51" s="4"/>
-    </row>
-    <row r="52" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I52" s="5">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="J52" s="5">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="K52" s="5">
         <v>0</v>
       </c>
       <c r="L52" s="5">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="M52" s="5">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="N52" s="5">
         <v>0</v>
@@ -5739,19 +5562,19 @@
         <v>0</v>
       </c>
       <c r="U52" s="5">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="V52" s="5">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="W52" s="5">
         <v>0</v>
       </c>
       <c r="X52" s="5">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="Y52" s="5">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="Z52" s="5">
         <v>0</v>
@@ -5761,49 +5584,46 @@
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
       <c r="AE52" s="4"/>
-      <c r="AF52" s="4"/>
-      <c r="AG52" s="4"/>
-      <c r="AH52" s="4"/>
-    </row>
-    <row r="53" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I53" s="5">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="J53" s="5">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="K53" s="5">
         <v>0</v>
       </c>
       <c r="L53" s="5">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="M53" s="5">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N53" s="5">
         <v>0</v>
@@ -5827,89 +5647,76 @@
         <v>0</v>
       </c>
       <c r="U53" s="5">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="V53" s="5">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="W53" s="5">
         <v>0</v>
       </c>
       <c r="X53" s="5">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="Y53" s="5">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="Z53" s="5">
         <v>0</v>
       </c>
-      <c r="AA53" s="5">
-        <v>8</v>
-      </c>
-      <c r="AB53" s="13">
-        <v>3</v>
-      </c>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
       <c r="AE53" s="4"/>
-      <c r="AF53" s="14">
-        <v>15</v>
-      </c>
-      <c r="AG53" s="14">
-        <v>16</v>
-      </c>
-      <c r="AH53" s="14">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I54" s="11">
-        <v>2006</v>
-      </c>
-      <c r="J54" s="11">
-        <v>2004</v>
+        <v>29</v>
+      </c>
+      <c r="I54" s="13">
+        <v>1990</v>
+      </c>
+      <c r="J54" s="13">
+        <v>1988</v>
       </c>
       <c r="K54" s="5">
         <v>2</v>
       </c>
       <c r="L54" s="5">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M54" s="5">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N54" s="5">
         <v>0</v>
       </c>
-      <c r="O54" s="11">
+      <c r="O54" s="13">
         <v>1217</v>
       </c>
-      <c r="P54" s="11">
+      <c r="P54" s="13">
         <v>1217</v>
       </c>
       <c r="Q54" s="5">
@@ -5925,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="U54" s="5">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="V54" s="5">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="W54" s="5">
         <v>2</v>
       </c>
       <c r="X54" s="5">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Y54" s="5">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Z54" s="5">
         <v>0</v>
@@ -5947,49 +5754,46 @@
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
       <c r="AE54" s="4"/>
-      <c r="AF54" s="4"/>
-      <c r="AG54" s="4"/>
-      <c r="AH54" s="4"/>
-    </row>
-    <row r="55" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I55" s="5">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J55" s="5">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K55" s="5">
         <v>3</v>
       </c>
       <c r="L55" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M55" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N55" s="5">
         <v>0</v>
@@ -6004,28 +5808,28 @@
         <v>0</v>
       </c>
       <c r="R55" s="5">
-        <v>2</v>
-      </c>
-      <c r="S55" s="5">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S55" s="6">
+        <v>0</v>
       </c>
       <c r="T55" s="5">
         <v>0</v>
       </c>
       <c r="U55" s="5">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="V55" s="5">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="W55" s="5">
         <v>3</v>
       </c>
       <c r="X55" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y55" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z55" s="5">
         <v>0</v>
@@ -6035,49 +5839,46 @@
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
       <c r="AE55" s="4"/>
-      <c r="AF55" s="4"/>
-      <c r="AG55" s="4"/>
-      <c r="AH55" s="4"/>
-    </row>
-    <row r="56" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="E56" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I56" s="5">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J56" s="5">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K56" s="5">
         <v>0</v>
       </c>
       <c r="L56" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M56" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N56" s="5">
         <v>0</v>
@@ -6101,19 +5902,19 @@
         <v>0</v>
       </c>
       <c r="U56" s="5">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V56" s="5">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="W56" s="5">
         <v>0</v>
       </c>
       <c r="X56" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Y56" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Z56" s="5">
         <v>0</v>
@@ -6123,34 +5924,31 @@
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
       <c r="AE56" s="4"/>
-      <c r="AF56" s="4"/>
-      <c r="AG56" s="4"/>
-      <c r="AH56" s="4"/>
-    </row>
-    <row r="57" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="E57" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I57" s="5">
         <v>158</v>
@@ -6211,49 +6009,46 @@
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
       <c r="AE57" s="4"/>
-      <c r="AF57" s="4"/>
-      <c r="AG57" s="4"/>
-      <c r="AH57" s="4"/>
-    </row>
-    <row r="58" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="E58" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I58" s="5">
-        <v>667</v>
+        <v>614</v>
       </c>
       <c r="J58" s="5">
-        <v>662</v>
+        <v>609</v>
       </c>
       <c r="K58" s="5">
         <v>5</v>
       </c>
       <c r="L58" s="5">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="M58" s="5">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="N58" s="5">
         <v>5</v>
@@ -6266,28 +6061,28 @@
         <v>5</v>
       </c>
       <c r="R58" s="8">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="S58" s="5">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="T58" s="5">
         <v>5</v>
       </c>
       <c r="U58" s="5">
-        <v>662</v>
+        <v>609</v>
       </c>
       <c r="V58" s="5">
-        <v>662</v>
+        <v>609</v>
       </c>
       <c r="W58" s="5">
         <v>0</v>
       </c>
       <c r="X58" s="5">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="Y58" s="5">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="Z58" s="5">
         <v>0</v>
@@ -6297,34 +6092,31 @@
       <c r="AC58" s="4"/>
       <c r="AD58" s="4"/>
       <c r="AE58" s="4"/>
-      <c r="AF58" s="4"/>
-      <c r="AG58" s="4"/>
-      <c r="AH58" s="4"/>
-    </row>
-    <row r="59" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="E59" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I59" s="5">
         <v>444</v>
@@ -6385,49 +6177,46 @@
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
       <c r="AE59" s="4"/>
-      <c r="AF59" s="4"/>
-      <c r="AG59" s="4"/>
-      <c r="AH59" s="4"/>
-    </row>
-    <row r="60" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I60" s="5">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J60" s="5">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K60" s="5">
         <v>1</v>
       </c>
       <c r="L60" s="5">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M60" s="5">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N60" s="5">
         <v>0</v>
@@ -6451,19 +6240,19 @@
         <v>0</v>
       </c>
       <c r="U60" s="5">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="V60" s="5">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="W60" s="5">
         <v>0</v>
       </c>
       <c r="X60" s="5">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Y60" s="5">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Z60" s="5">
         <v>0</v>
@@ -6473,34 +6262,31 @@
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
       <c r="AE60" s="4"/>
-      <c r="AF60" s="4"/>
-      <c r="AG60" s="4"/>
-      <c r="AH60" s="4"/>
-    </row>
-    <row r="61" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I61" s="5">
         <v>167</v>
@@ -6561,34 +6347,31 @@
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
       <c r="AE61" s="4"/>
-      <c r="AF61" s="4"/>
-      <c r="AG61" s="4"/>
-      <c r="AH61" s="4"/>
-    </row>
-    <row r="62" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="E62" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I62" s="5">
         <v>155</v>
@@ -6600,26 +6383,26 @@
         <v>0</v>
       </c>
       <c r="L62" s="5">
-        <v>40</v>
-      </c>
-      <c r="M62" s="5">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="M62" s="6">
+        <v>0</v>
       </c>
       <c r="N62" s="5">
         <v>0</v>
       </c>
-      <c r="O62" s="8">
-        <v>0</v>
-      </c>
-      <c r="P62" s="9"/>
+      <c r="O62" s="5">
+        <v>0</v>
+      </c>
+      <c r="P62" s="7"/>
       <c r="Q62" s="5">
         <v>0</v>
       </c>
-      <c r="R62" s="8">
-        <v>40</v>
-      </c>
-      <c r="S62" s="5">
-        <v>40</v>
+      <c r="R62" s="5">
+        <v>0</v>
+      </c>
+      <c r="S62" s="6">
+        <v>0</v>
       </c>
       <c r="T62" s="5">
         <v>0</v>
@@ -6647,34 +6430,31 @@
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
       <c r="AE62" s="4"/>
-      <c r="AF62" s="4"/>
-      <c r="AG62" s="4"/>
-      <c r="AH62" s="4"/>
-    </row>
-    <row r="63" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="E63" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I63" s="5">
         <v>171</v>
@@ -6735,83 +6515,80 @@
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
       <c r="AE63" s="4"/>
-      <c r="AF63" s="4"/>
-      <c r="AG63" s="4"/>
-      <c r="AH63" s="4"/>
-    </row>
-    <row r="64" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="F64" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I64" s="5">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J64" s="5">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K64" s="5">
         <v>5</v>
       </c>
       <c r="L64" s="5">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="M64" s="5">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="N64" s="5">
         <v>0</v>
       </c>
-      <c r="O64" s="8">
+      <c r="O64" s="5">
         <v>5</v>
       </c>
       <c r="P64" s="9"/>
       <c r="Q64" s="5">
         <v>5</v>
       </c>
-      <c r="R64" s="8">
-        <v>35</v>
-      </c>
-      <c r="S64" s="5">
-        <v>35</v>
+      <c r="R64" s="5">
+        <v>0</v>
+      </c>
+      <c r="S64" s="6">
+        <v>0</v>
       </c>
       <c r="T64" s="5">
         <v>0</v>
       </c>
       <c r="U64" s="5">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="V64" s="5">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="W64" s="5">
         <v>0</v>
       </c>
       <c r="X64" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y64" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z64" s="5">
         <v>0</v>
@@ -6821,49 +6598,46 @@
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
       <c r="AE64" s="4"/>
-      <c r="AF64" s="4"/>
-      <c r="AG64" s="4"/>
-      <c r="AH64" s="4"/>
-    </row>
-    <row r="65" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I65" s="5">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="J65" s="5">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="K65" s="5">
         <v>0</v>
       </c>
       <c r="L65" s="5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M65" s="5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N65" s="5">
         <v>0</v>
@@ -6887,19 +6661,19 @@
         <v>0</v>
       </c>
       <c r="U65" s="5">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="V65" s="5">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="W65" s="5">
         <v>0</v>
       </c>
       <c r="X65" s="5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Y65" s="5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Z65" s="5">
         <v>0</v>
@@ -6909,34 +6683,31 @@
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
       <c r="AE65" s="4"/>
-      <c r="AF65" s="4"/>
-      <c r="AG65" s="4"/>
-      <c r="AH65" s="4"/>
-    </row>
-    <row r="66" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I66" s="5">
         <v>42</v>
@@ -6997,34 +6768,31 @@
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
       <c r="AE66" s="4"/>
-      <c r="AF66" s="4"/>
-      <c r="AG66" s="4"/>
-      <c r="AH66" s="4"/>
-    </row>
-    <row r="67" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I67" s="5">
         <v>137</v>
@@ -7085,49 +6853,46 @@
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
       <c r="AE67" s="4"/>
-      <c r="AF67" s="4"/>
-      <c r="AG67" s="4"/>
-      <c r="AH67" s="4"/>
-    </row>
-    <row r="68" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I68" s="5">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="J68" s="5">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="K68" s="5">
         <v>1</v>
       </c>
       <c r="L68" s="5">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M68" s="5">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="N68" s="5">
         <v>50</v>
@@ -7151,19 +6916,19 @@
         <v>50</v>
       </c>
       <c r="U68" s="5">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="V68" s="5">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="W68" s="5">
         <v>0</v>
       </c>
       <c r="X68" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="6">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="Y68" s="5">
+        <v>5</v>
       </c>
       <c r="Z68" s="5">
         <v>0</v>
@@ -7173,34 +6938,31 @@
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
       <c r="AE68" s="4"/>
-      <c r="AF68" s="4"/>
-      <c r="AG68" s="4"/>
-      <c r="AH68" s="4"/>
-    </row>
-    <row r="69" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I69" s="5">
         <v>568</v>
@@ -7212,10 +6974,10 @@
         <v>0</v>
       </c>
       <c r="L69" s="5">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M69" s="5">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N69" s="5">
         <v>0</v>
@@ -7248,10 +7010,10 @@
         <v>0</v>
       </c>
       <c r="X69" s="5">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Y69" s="5">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z69" s="5">
         <v>0</v>
@@ -7261,34 +7023,31 @@
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
       <c r="AE69" s="4"/>
-      <c r="AF69" s="4"/>
-      <c r="AG69" s="4"/>
-      <c r="AH69" s="4"/>
-    </row>
-    <row r="70" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="F70" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I70" s="5">
         <v>178</v>
@@ -7347,67 +7106,64 @@
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
       <c r="AE70" s="4"/>
-      <c r="AF70" s="4"/>
-      <c r="AG70" s="4"/>
-      <c r="AH70" s="4"/>
-    </row>
-    <row r="71" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I71" s="5">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="J71" s="5">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="K71" s="5">
         <v>0</v>
       </c>
       <c r="L71" s="5">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M71" s="5">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="N71" s="5">
         <v>0</v>
       </c>
       <c r="O71" s="5">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="P71" s="5">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="Q71" s="5">
         <v>0</v>
       </c>
       <c r="R71" s="5">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="S71" s="5">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="T71" s="5">
         <v>0</v>
@@ -7435,39 +7191,36 @@
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
       <c r="AE71" s="4"/>
-      <c r="AF71" s="4"/>
-      <c r="AG71" s="4"/>
-      <c r="AH71" s="4"/>
-    </row>
-    <row r="72" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I72" s="11">
+        <v>29</v>
+      </c>
+      <c r="I72" s="13">
         <v>1131</v>
       </c>
-      <c r="J72" s="11">
+      <c r="J72" s="13">
         <v>1131</v>
       </c>
       <c r="K72" s="5">
@@ -7523,85 +7276,82 @@
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
       <c r="AE72" s="4"/>
-      <c r="AF72" s="4"/>
-      <c r="AG72" s="4"/>
-      <c r="AH72" s="4"/>
-    </row>
-    <row r="73" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I73" s="5">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="J73" s="5">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="K73" s="5">
         <v>0</v>
       </c>
       <c r="L73" s="5">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="M73" s="5">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="N73" s="5">
         <v>0</v>
       </c>
       <c r="O73" s="5">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="P73" s="5">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="Q73" s="5">
         <v>0</v>
       </c>
       <c r="R73" s="5">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="S73" s="5">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="T73" s="5">
         <v>0</v>
       </c>
       <c r="U73" s="5">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="V73" s="5">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="W73" s="5">
         <v>0</v>
       </c>
       <c r="X73" s="5">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="Y73" s="5">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="Z73" s="5">
         <v>0</v>
@@ -7611,85 +7361,82 @@
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
       <c r="AE73" s="4"/>
-      <c r="AF73" s="4"/>
-      <c r="AG73" s="4"/>
-      <c r="AH73" s="4"/>
-    </row>
-    <row r="74" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I74" s="5">
+        <v>451</v>
+      </c>
+      <c r="J74" s="5">
+        <v>451</v>
+      </c>
+      <c r="K74" s="5">
+        <v>0</v>
+      </c>
+      <c r="L74" s="5">
+        <v>85</v>
+      </c>
+      <c r="M74" s="5">
+        <v>85</v>
+      </c>
+      <c r="N74" s="5">
+        <v>0</v>
+      </c>
+      <c r="O74" s="5">
+        <v>373</v>
+      </c>
+      <c r="P74" s="5">
+        <v>373</v>
+      </c>
+      <c r="Q74" s="5">
+        <v>0</v>
+      </c>
+      <c r="R74" s="5">
+        <v>58</v>
+      </c>
+      <c r="S74" s="5">
+        <v>58</v>
+      </c>
+      <c r="T74" s="5">
+        <v>0</v>
+      </c>
+      <c r="U74" s="5">
+        <v>78</v>
+      </c>
+      <c r="V74" s="5">
+        <v>78</v>
+      </c>
+      <c r="W74" s="5">
+        <v>0</v>
+      </c>
+      <c r="X74" s="5">
         <v>27</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I74" s="5">
-        <v>461</v>
-      </c>
-      <c r="J74" s="5">
-        <v>461</v>
-      </c>
-      <c r="K74" s="5">
-        <v>0</v>
-      </c>
-      <c r="L74" s="5">
-        <v>77</v>
-      </c>
-      <c r="M74" s="5">
-        <v>77</v>
-      </c>
-      <c r="N74" s="5">
-        <v>0</v>
-      </c>
-      <c r="O74" s="5">
-        <v>381</v>
-      </c>
-      <c r="P74" s="5">
-        <v>381</v>
-      </c>
-      <c r="Q74" s="5">
-        <v>0</v>
-      </c>
-      <c r="R74" s="5">
-        <v>51</v>
-      </c>
-      <c r="S74" s="5">
-        <v>51</v>
-      </c>
-      <c r="T74" s="5">
-        <v>0</v>
-      </c>
-      <c r="U74" s="5">
-        <v>80</v>
-      </c>
-      <c r="V74" s="5">
-        <v>80</v>
-      </c>
-      <c r="W74" s="5">
-        <v>0</v>
-      </c>
-      <c r="X74" s="5">
-        <v>26</v>
-      </c>
       <c r="Y74" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z74" s="5">
         <v>0</v>
@@ -7699,40 +7446,37 @@
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
       <c r="AE74" s="4"/>
-      <c r="AF74" s="4"/>
-      <c r="AG74" s="4"/>
-      <c r="AH74" s="4"/>
-    </row>
-    <row r="75" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I75" s="5">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J75" s="5">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K75" s="5">
         <v>1</v>
@@ -7747,37 +7491,37 @@
         <v>1</v>
       </c>
       <c r="O75" s="5">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P75" s="5">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q75" s="5">
         <v>1</v>
       </c>
       <c r="R75" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S75" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T75" s="5">
         <v>0</v>
       </c>
       <c r="U75" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V75" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W75" s="5">
         <v>0</v>
       </c>
       <c r="X75" s="5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y75" s="5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z75" s="5">
         <v>1</v>
@@ -7787,34 +7531,31 @@
       <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
       <c r="AE75" s="4"/>
-      <c r="AF75" s="4"/>
-      <c r="AG75" s="4"/>
-      <c r="AH75" s="4"/>
-    </row>
-    <row r="76" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I76" s="5">
         <v>2</v>
@@ -7873,49 +7614,46 @@
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
       <c r="AE76" s="4"/>
-      <c r="AF76" s="4"/>
-      <c r="AG76" s="4"/>
-      <c r="AH76" s="4"/>
-    </row>
-    <row r="77" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="E77" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I77" s="5">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="J77" s="5">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="K77" s="5">
         <v>0</v>
       </c>
       <c r="L77" s="5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M77" s="5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N77" s="5">
         <v>0</v>
@@ -7930,28 +7668,28 @@
         <v>0</v>
       </c>
       <c r="R77" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S77" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T77" s="5">
         <v>0</v>
       </c>
       <c r="U77" s="5">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="V77" s="5">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="W77" s="5">
         <v>0</v>
       </c>
       <c r="X77" s="5">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Y77" s="5">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Z77" s="5">
         <v>0</v>
@@ -7961,49 +7699,46 @@
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
       <c r="AE77" s="4"/>
-      <c r="AF77" s="4"/>
-      <c r="AG77" s="4"/>
-      <c r="AH77" s="4"/>
-    </row>
-    <row r="78" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C78" s="4" t="s">
+      <c r="E78" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="F78" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I78" s="5">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J78" s="5">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K78" s="5">
         <v>0</v>
       </c>
       <c r="L78" s="5">
-        <v>0</v>
-      </c>
-      <c r="M78" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M78" s="5">
+        <v>2</v>
       </c>
       <c r="N78" s="5">
         <v>0</v>
@@ -8027,19 +7762,19 @@
         <v>0</v>
       </c>
       <c r="U78" s="5">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V78" s="5">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="W78" s="5">
         <v>0</v>
       </c>
       <c r="X78" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y78" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Y78" s="5">
+        <v>2</v>
       </c>
       <c r="Z78" s="5">
         <v>0</v>
@@ -8049,49 +7784,46 @@
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
       <c r="AE78" s="4"/>
-      <c r="AF78" s="4"/>
-      <c r="AG78" s="4"/>
-      <c r="AH78" s="4"/>
-    </row>
-    <row r="79" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I79" s="5">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J79" s="5">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K79" s="5">
         <v>0</v>
       </c>
       <c r="L79" s="5">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M79" s="5">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N79" s="5">
         <v>0</v>
@@ -8106,28 +7838,28 @@
         <v>0</v>
       </c>
       <c r="R79" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S79" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T79" s="5">
         <v>0</v>
       </c>
       <c r="U79" s="5">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="V79" s="5">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="W79" s="5">
         <v>0</v>
       </c>
       <c r="X79" s="5">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="Y79" s="5">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="Z79" s="5">
         <v>0</v>
@@ -8137,58 +7869,55 @@
       <c r="AC79" s="4"/>
       <c r="AD79" s="4"/>
       <c r="AE79" s="4"/>
-      <c r="AF79" s="4"/>
-      <c r="AG79" s="4"/>
-      <c r="AH79" s="4"/>
-    </row>
-    <row r="80" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I80" s="11">
-        <v>1357</v>
-      </c>
-      <c r="J80" s="11">
-        <v>1356</v>
+        <v>29</v>
+      </c>
+      <c r="I80" s="13">
+        <v>1351</v>
+      </c>
+      <c r="J80" s="13">
+        <v>1350</v>
       </c>
       <c r="K80" s="5">
         <v>1</v>
       </c>
       <c r="L80" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M80" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N80" s="5">
         <v>0</v>
       </c>
-      <c r="O80" s="11">
-        <v>1313</v>
-      </c>
-      <c r="P80" s="11">
-        <v>1312</v>
+      <c r="O80" s="13">
+        <v>1309</v>
+      </c>
+      <c r="P80" s="13">
+        <v>1308</v>
       </c>
       <c r="Q80" s="5">
         <v>1</v>
@@ -8203,19 +7932,19 @@
         <v>0</v>
       </c>
       <c r="U80" s="5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V80" s="5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W80" s="5">
         <v>0</v>
       </c>
       <c r="X80" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y80" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Z80" s="5">
         <v>0</v>
@@ -8225,34 +7954,31 @@
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
       <c r="AE80" s="4"/>
-      <c r="AF80" s="4"/>
-      <c r="AG80" s="4"/>
-      <c r="AH80" s="4"/>
-    </row>
-    <row r="81" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I81" s="5">
         <v>42</v>
@@ -8313,122 +8039,116 @@
       <c r="AC81" s="4"/>
       <c r="AD81" s="4"/>
       <c r="AE81" s="4"/>
-      <c r="AF81" s="4"/>
-      <c r="AG81" s="4"/>
-      <c r="AH81" s="4"/>
-    </row>
-    <row r="82" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I82" s="11">
-        <v>2113</v>
-      </c>
-      <c r="J82" s="11">
-        <v>2111</v>
+        <v>29</v>
+      </c>
+      <c r="I82" s="13">
+        <v>2037</v>
+      </c>
+      <c r="J82" s="13">
+        <v>2035</v>
       </c>
       <c r="K82" s="5">
         <v>2</v>
       </c>
       <c r="L82" s="5">
-        <v>699</v>
+        <v>209</v>
       </c>
       <c r="M82" s="5">
-        <v>672</v>
+        <v>159</v>
       </c>
       <c r="N82" s="5">
-        <v>27</v>
-      </c>
-      <c r="O82" s="11">
-        <v>1335</v>
-      </c>
-      <c r="P82" s="11">
-        <v>1333</v>
+        <v>50</v>
+      </c>
+      <c r="O82" s="13">
+        <v>1274</v>
+      </c>
+      <c r="P82" s="13">
+        <v>1272</v>
       </c>
       <c r="Q82" s="5">
         <v>2</v>
       </c>
       <c r="R82" s="5">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="S82" s="5">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="T82" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U82" s="5">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="V82" s="5">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="W82" s="5">
         <v>0</v>
       </c>
       <c r="X82" s="5">
-        <v>610</v>
+        <v>97</v>
       </c>
       <c r="Y82" s="5">
-        <v>588</v>
+        <v>47</v>
       </c>
       <c r="Z82" s="5">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="AA82" s="7"/>
       <c r="AB82" s="7"/>
       <c r="AC82" s="4"/>
       <c r="AD82" s="4"/>
       <c r="AE82" s="4"/>
-      <c r="AF82" s="4"/>
-      <c r="AG82" s="4"/>
-      <c r="AH82" s="4"/>
-    </row>
-    <row r="83" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I83" s="5">
         <v>572</v>
@@ -8440,10 +8160,10 @@
         <v>0</v>
       </c>
       <c r="L83" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M83" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N83" s="5">
         <v>0</v>
@@ -8476,10 +8196,10 @@
         <v>0</v>
       </c>
       <c r="X83" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y83" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z83" s="5">
         <v>0</v>
@@ -8489,39 +8209,36 @@
       <c r="AC83" s="4"/>
       <c r="AD83" s="4"/>
       <c r="AE83" s="4"/>
-      <c r="AF83" s="4"/>
-      <c r="AG83" s="4"/>
-      <c r="AH83" s="4"/>
-    </row>
-    <row r="84" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I84" s="11">
+        <v>29</v>
+      </c>
+      <c r="I84" s="13">
         <v>1269</v>
       </c>
-      <c r="J84" s="11">
+      <c r="J84" s="13">
         <v>1269</v>
       </c>
       <c r="K84" s="5">
@@ -8536,10 +8253,10 @@
       <c r="N84" s="5">
         <v>0</v>
       </c>
-      <c r="O84" s="11">
+      <c r="O84" s="13">
         <v>1022</v>
       </c>
-      <c r="P84" s="11">
+      <c r="P84" s="13">
         <v>1022</v>
       </c>
       <c r="Q84" s="5">
@@ -8577,49 +8294,46 @@
       <c r="AC84" s="4"/>
       <c r="AD84" s="4"/>
       <c r="AE84" s="4"/>
-      <c r="AF84" s="4"/>
-      <c r="AG84" s="4"/>
-      <c r="AH84" s="4"/>
-    </row>
-    <row r="85" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="F85" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I85" s="5">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="J85" s="5">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="K85" s="5">
         <v>1</v>
       </c>
       <c r="L85" s="5">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="M85" s="5">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="N85" s="5">
         <v>0</v>
@@ -8634,28 +8348,28 @@
         <v>1</v>
       </c>
       <c r="R85" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S85" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T85" s="5">
         <v>0</v>
       </c>
       <c r="U85" s="5">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="V85" s="5">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="W85" s="5">
         <v>0</v>
       </c>
       <c r="X85" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y85" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Y85" s="5">
+        <v>2</v>
       </c>
       <c r="Z85" s="5">
         <v>0</v>
@@ -8665,85 +8379,82 @@
       <c r="AC85" s="4"/>
       <c r="AD85" s="4"/>
       <c r="AE85" s="4"/>
-      <c r="AF85" s="4"/>
-      <c r="AG85" s="4"/>
-      <c r="AH85" s="4"/>
-    </row>
-    <row r="86" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I86" s="5">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="J86" s="5">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="K86" s="5">
         <v>0</v>
       </c>
       <c r="L86" s="5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M86" s="5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N86" s="5">
         <v>0</v>
       </c>
       <c r="O86" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P86" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q86" s="5">
         <v>0</v>
       </c>
       <c r="R86" s="5">
-        <v>0</v>
-      </c>
-      <c r="S86" s="6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S86" s="5">
+        <v>1</v>
       </c>
       <c r="T86" s="5">
         <v>0</v>
       </c>
       <c r="U86" s="5">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="V86" s="5">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="W86" s="5">
         <v>0</v>
       </c>
       <c r="X86" s="5">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Y86" s="5">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Z86" s="5">
         <v>0</v>
@@ -8753,34 +8464,31 @@
       <c r="AC86" s="4"/>
       <c r="AD86" s="4"/>
       <c r="AE86" s="4"/>
-      <c r="AF86" s="4"/>
-      <c r="AG86" s="4"/>
-      <c r="AH86" s="4"/>
-    </row>
-    <row r="87" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I87" s="5">
         <v>117</v>
@@ -8839,67 +8547,64 @@
       <c r="AC87" s="4"/>
       <c r="AD87" s="4"/>
       <c r="AE87" s="4"/>
-      <c r="AF87" s="4"/>
-      <c r="AG87" s="4"/>
-      <c r="AH87" s="4"/>
-    </row>
-    <row r="88" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I88" s="5">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="J88" s="5">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K88" s="5">
         <v>0</v>
       </c>
       <c r="L88" s="5">
-        <v>0</v>
-      </c>
-      <c r="M88" s="6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M88" s="5">
+        <v>1</v>
       </c>
       <c r="N88" s="5">
         <v>0</v>
       </c>
       <c r="O88" s="5">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="P88" s="5">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="Q88" s="5">
         <v>0</v>
       </c>
       <c r="R88" s="5">
-        <v>0</v>
-      </c>
-      <c r="S88" s="6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S88" s="5">
+        <v>1</v>
       </c>
       <c r="T88" s="5">
         <v>0</v>
@@ -8925,34 +8630,31 @@
       <c r="AC88" s="4"/>
       <c r="AD88" s="4"/>
       <c r="AE88" s="4"/>
-      <c r="AF88" s="4"/>
-      <c r="AG88" s="4"/>
-      <c r="AH88" s="4"/>
-    </row>
-    <row r="89" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I89" s="5">
         <v>23</v>
@@ -9011,85 +8713,82 @@
       <c r="AC89" s="4"/>
       <c r="AD89" s="4"/>
       <c r="AE89" s="4"/>
-      <c r="AF89" s="4"/>
-      <c r="AG89" s="4"/>
-      <c r="AH89" s="4"/>
-    </row>
-    <row r="90" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I90" s="11">
-        <v>2698</v>
-      </c>
-      <c r="J90" s="11">
-        <v>2688</v>
+        <v>29</v>
+      </c>
+      <c r="I90" s="13">
+        <v>2624</v>
+      </c>
+      <c r="J90" s="13">
+        <v>2614</v>
       </c>
       <c r="K90" s="5">
         <v>10</v>
       </c>
       <c r="L90" s="5">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="M90" s="5">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="N90" s="5">
         <v>45</v>
       </c>
-      <c r="O90" s="11">
-        <v>1016</v>
-      </c>
-      <c r="P90" s="11">
-        <v>1008</v>
+      <c r="O90" s="5">
+        <v>963</v>
+      </c>
+      <c r="P90" s="5">
+        <v>955</v>
       </c>
       <c r="Q90" s="5">
         <v>8</v>
       </c>
       <c r="R90" s="5">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="S90" s="5">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="T90" s="5">
         <v>45</v>
       </c>
-      <c r="U90" s="11">
-        <v>1682</v>
-      </c>
-      <c r="V90" s="11">
-        <v>1680</v>
+      <c r="U90" s="13">
+        <v>1661</v>
+      </c>
+      <c r="V90" s="13">
+        <v>1659</v>
       </c>
       <c r="W90" s="5">
         <v>2</v>
       </c>
       <c r="X90" s="5">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="Y90" s="5">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="Z90" s="5">
         <v>0</v>
@@ -9099,85 +8798,82 @@
       <c r="AC90" s="4"/>
       <c r="AD90" s="4"/>
       <c r="AE90" s="4"/>
-      <c r="AF90" s="4"/>
-      <c r="AG90" s="4"/>
-      <c r="AH90" s="4"/>
-    </row>
-    <row r="91" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C91" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="F91" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I91" s="5">
-        <v>689</v>
+        <v>652</v>
       </c>
       <c r="J91" s="5">
-        <v>670</v>
+        <v>633</v>
       </c>
       <c r="K91" s="5">
         <v>19</v>
       </c>
       <c r="L91" s="5">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="M91" s="5">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N91" s="5">
-        <v>15</v>
-      </c>
-      <c r="O91" s="5">
-        <v>57</v>
+        <v>45</v>
+      </c>
+      <c r="O91" s="8">
+        <v>27</v>
       </c>
       <c r="P91" s="5">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="Q91" s="5">
         <v>19</v>
       </c>
-      <c r="R91" s="5">
-        <v>16</v>
-      </c>
-      <c r="S91" s="5">
-        <v>1</v>
+      <c r="R91" s="8">
+        <v>45</v>
+      </c>
+      <c r="S91" s="6">
+        <v>0</v>
       </c>
       <c r="T91" s="5">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="U91" s="5">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="V91" s="5">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="W91" s="5">
         <v>0</v>
       </c>
       <c r="X91" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y91" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z91" s="5">
         <v>0</v>
@@ -9187,85 +8883,82 @@
       <c r="AC91" s="4"/>
       <c r="AD91" s="4"/>
       <c r="AE91" s="4"/>
-      <c r="AF91" s="4"/>
-      <c r="AG91" s="4"/>
-      <c r="AH91" s="4"/>
-    </row>
-    <row r="92" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I92" s="11">
-        <v>1935</v>
-      </c>
-      <c r="J92" s="11">
-        <v>1931</v>
+        <v>29</v>
+      </c>
+      <c r="I92" s="13">
+        <v>1732</v>
+      </c>
+      <c r="J92" s="13">
+        <v>1728</v>
       </c>
       <c r="K92" s="5">
         <v>4</v>
       </c>
       <c r="L92" s="5">
-        <v>837</v>
+        <v>777</v>
       </c>
       <c r="M92" s="5">
-        <v>767</v>
+        <v>726</v>
       </c>
       <c r="N92" s="5">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O92" s="5">
-        <v>779</v>
+        <v>687</v>
       </c>
       <c r="P92" s="5">
-        <v>779</v>
+        <v>687</v>
       </c>
       <c r="Q92" s="5">
         <v>0</v>
       </c>
       <c r="R92" s="5">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="S92" s="5">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="T92" s="5">
-        <v>70</v>
-      </c>
-      <c r="U92" s="11">
-        <v>1156</v>
-      </c>
-      <c r="V92" s="11">
-        <v>1152</v>
+        <v>51</v>
+      </c>
+      <c r="U92" s="13">
+        <v>1045</v>
+      </c>
+      <c r="V92" s="13">
+        <v>1041</v>
       </c>
       <c r="W92" s="5">
         <v>4</v>
       </c>
       <c r="X92" s="5">
-        <v>568</v>
+        <v>496</v>
       </c>
       <c r="Y92" s="5">
-        <v>568</v>
+        <v>496</v>
       </c>
       <c r="Z92" s="5">
         <v>0</v>
@@ -9275,85 +8968,82 @@
       <c r="AC92" s="4"/>
       <c r="AD92" s="4"/>
       <c r="AE92" s="4"/>
-      <c r="AF92" s="4"/>
-      <c r="AG92" s="4"/>
-      <c r="AH92" s="4"/>
-    </row>
-    <row r="93" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I93" s="11">
-        <v>1373</v>
-      </c>
-      <c r="J93" s="11">
-        <v>1373</v>
+        <v>29</v>
+      </c>
+      <c r="I93" s="13">
+        <v>1166</v>
+      </c>
+      <c r="J93" s="13">
+        <v>1166</v>
       </c>
       <c r="K93" s="5">
         <v>0</v>
       </c>
       <c r="L93" s="5">
-        <v>271</v>
+        <v>403</v>
       </c>
       <c r="M93" s="5">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="N93" s="5">
-        <v>52</v>
+        <v>227</v>
       </c>
       <c r="O93" s="5">
-        <v>718</v>
+        <v>539</v>
       </c>
       <c r="P93" s="5">
-        <v>718</v>
+        <v>539</v>
       </c>
       <c r="Q93" s="5">
         <v>0</v>
       </c>
       <c r="R93" s="5">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="S93" s="5">
         <v>35</v>
       </c>
       <c r="T93" s="5">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="U93" s="5">
-        <v>655</v>
+        <v>627</v>
       </c>
       <c r="V93" s="5">
-        <v>655</v>
+        <v>627</v>
       </c>
       <c r="W93" s="5">
         <v>0</v>
       </c>
       <c r="X93" s="5">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="Y93" s="5">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="Z93" s="5">
         <v>8</v>
@@ -9363,85 +9053,82 @@
       <c r="AC93" s="4"/>
       <c r="AD93" s="4"/>
       <c r="AE93" s="4"/>
-      <c r="AF93" s="4"/>
-      <c r="AG93" s="4"/>
-      <c r="AH93" s="4"/>
-    </row>
-    <row r="94" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I94" s="11">
-        <v>1517</v>
-      </c>
-      <c r="J94" s="11">
-        <v>1515</v>
+        <v>29</v>
+      </c>
+      <c r="I94" s="13">
+        <v>1466</v>
+      </c>
+      <c r="J94" s="13">
+        <v>1464</v>
       </c>
       <c r="K94" s="5">
         <v>2</v>
       </c>
       <c r="L94" s="5">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="M94" s="5">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="N94" s="5">
         <v>102</v>
       </c>
       <c r="O94" s="5">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="P94" s="5">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="Q94" s="5">
         <v>0</v>
       </c>
       <c r="R94" s="5">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="S94" s="5">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T94" s="5">
         <v>102</v>
       </c>
       <c r="U94" s="5">
-        <v>835</v>
+        <v>794</v>
       </c>
       <c r="V94" s="5">
-        <v>833</v>
+        <v>792</v>
       </c>
       <c r="W94" s="5">
         <v>2</v>
       </c>
       <c r="X94" s="5">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Y94" s="5">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Z94" s="5">
         <v>0</v>
@@ -9451,49 +9138,46 @@
       <c r="AC94" s="4"/>
       <c r="AD94" s="4"/>
       <c r="AE94" s="4"/>
-      <c r="AF94" s="4"/>
-      <c r="AG94" s="4"/>
-      <c r="AH94" s="4"/>
-    </row>
-    <row r="95" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I95" s="5">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J95" s="5">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K95" s="5">
         <v>0</v>
       </c>
       <c r="L95" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M95" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N95" s="5">
         <v>0</v>
@@ -9517,19 +9201,19 @@
         <v>0</v>
       </c>
       <c r="U95" s="5">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="V95" s="5">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="W95" s="5">
         <v>0</v>
       </c>
       <c r="X95" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Y95" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Z95" s="5">
         <v>0</v>
@@ -9539,49 +9223,46 @@
       <c r="AC95" s="4"/>
       <c r="AD95" s="4"/>
       <c r="AE95" s="4"/>
-      <c r="AF95" s="4"/>
-      <c r="AG95" s="4"/>
-      <c r="AH95" s="4"/>
-    </row>
-    <row r="96" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I96" s="5">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="J96" s="5">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="K96" s="5">
         <v>0</v>
       </c>
       <c r="L96" s="5">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="M96" s="5">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="N96" s="5">
         <v>0</v>
@@ -9605,19 +9286,19 @@
         <v>0</v>
       </c>
       <c r="U96" s="5">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V96" s="5">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W96" s="5">
         <v>0</v>
       </c>
       <c r="X96" s="5">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="Y96" s="5">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="Z96" s="5">
         <v>0</v>
@@ -9627,85 +9308,82 @@
       <c r="AC96" s="4"/>
       <c r="AD96" s="4"/>
       <c r="AE96" s="4"/>
-      <c r="AF96" s="4"/>
-      <c r="AG96" s="4"/>
-      <c r="AH96" s="4"/>
-    </row>
-    <row r="97" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="E97" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H97" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I97" s="5">
+        <v>35</v>
+      </c>
+      <c r="J97" s="5">
+        <v>35</v>
+      </c>
+      <c r="K97" s="5">
+        <v>0</v>
+      </c>
+      <c r="L97" s="5">
+        <v>4</v>
+      </c>
+      <c r="M97" s="5">
+        <v>4</v>
+      </c>
+      <c r="N97" s="5">
+        <v>0</v>
+      </c>
+      <c r="O97" s="5">
+        <v>3</v>
+      </c>
+      <c r="P97" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q97" s="5">
+        <v>0</v>
+      </c>
+      <c r="R97" s="5">
+        <v>2</v>
+      </c>
+      <c r="S97" s="5">
+        <v>2</v>
+      </c>
+      <c r="T97" s="5">
+        <v>0</v>
+      </c>
+      <c r="U97" s="5">
         <v>32</v>
       </c>
-      <c r="I97" s="5">
-        <v>38</v>
-      </c>
-      <c r="J97" s="5">
-        <v>38</v>
-      </c>
-      <c r="K97" s="5">
-        <v>0</v>
-      </c>
-      <c r="L97" s="5">
-        <v>1</v>
-      </c>
-      <c r="M97" s="5">
-        <v>1</v>
-      </c>
-      <c r="N97" s="5">
-        <v>0</v>
-      </c>
-      <c r="O97" s="5">
-        <v>4</v>
-      </c>
-      <c r="P97" s="5">
-        <v>4</v>
-      </c>
-      <c r="Q97" s="5">
-        <v>0</v>
-      </c>
-      <c r="R97" s="5">
-        <v>1</v>
-      </c>
-      <c r="S97" s="5">
-        <v>1</v>
-      </c>
-      <c r="T97" s="5">
-        <v>0</v>
-      </c>
-      <c r="U97" s="5">
-        <v>34</v>
-      </c>
       <c r="V97" s="5">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W97" s="5">
         <v>0</v>
       </c>
       <c r="X97" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y97" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Y97" s="5">
+        <v>2</v>
       </c>
       <c r="Z97" s="5">
         <v>0</v>
@@ -9715,67 +9393,64 @@
       <c r="AC97" s="4"/>
       <c r="AD97" s="4"/>
       <c r="AE97" s="4"/>
-      <c r="AF97" s="4"/>
-      <c r="AG97" s="4"/>
-      <c r="AH97" s="4"/>
-    </row>
-    <row r="98" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I98" s="5">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="J98" s="5">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="K98" s="5">
         <v>0</v>
       </c>
       <c r="L98" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M98" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N98" s="5">
         <v>0</v>
       </c>
       <c r="O98" s="5">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P98" s="5">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q98" s="5">
         <v>0</v>
       </c>
       <c r="R98" s="5">
-        <v>0</v>
-      </c>
-      <c r="S98" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="S98" s="5">
+        <v>4</v>
       </c>
       <c r="T98" s="5">
         <v>0</v>
@@ -9790,10 +9465,10 @@
         <v>0</v>
       </c>
       <c r="X98" s="5">
-        <v>5</v>
-      </c>
-      <c r="Y98" s="5">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="Y98" s="6">
+        <v>0</v>
       </c>
       <c r="Z98" s="5">
         <v>0</v>
@@ -9803,85 +9478,82 @@
       <c r="AC98" s="4"/>
       <c r="AD98" s="4"/>
       <c r="AE98" s="4"/>
-      <c r="AF98" s="4"/>
-      <c r="AG98" s="4"/>
-      <c r="AH98" s="4"/>
-    </row>
-    <row r="99" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I99" s="5">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="J99" s="5">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="K99" s="5">
         <v>0</v>
       </c>
       <c r="L99" s="5">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M99" s="5">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="N99" s="5">
         <v>0</v>
       </c>
       <c r="O99" s="5">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P99" s="5">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q99" s="5">
         <v>0</v>
       </c>
       <c r="R99" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S99" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T99" s="5">
         <v>0</v>
       </c>
       <c r="U99" s="8">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="V99" s="5">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="W99" s="5">
         <v>0</v>
       </c>
       <c r="X99" s="8">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="Y99" s="5">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="Z99" s="5">
         <v>0</v>
@@ -9891,49 +9563,46 @@
       <c r="AC99" s="4"/>
       <c r="AD99" s="4"/>
       <c r="AE99" s="4"/>
-      <c r="AF99" s="4"/>
-      <c r="AG99" s="4"/>
-      <c r="AH99" s="4"/>
-    </row>
-    <row r="100" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="F100" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I100" s="5">
         <v>197</v>
       </c>
-      <c r="E100" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I100" s="5">
-        <v>202</v>
-      </c>
       <c r="J100" s="5">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K100" s="5">
         <v>0</v>
       </c>
       <c r="L100" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M100" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N100" s="5">
         <v>0</v>
@@ -9957,19 +9626,19 @@
         <v>0</v>
       </c>
       <c r="U100" s="5">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="V100" s="5">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="W100" s="5">
         <v>0</v>
       </c>
       <c r="X100" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Y100" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Z100" s="5">
         <v>0</v>
@@ -9979,85 +9648,82 @@
       <c r="AC100" s="4"/>
       <c r="AD100" s="4"/>
       <c r="AE100" s="4"/>
-      <c r="AF100" s="4"/>
-      <c r="AG100" s="4"/>
-      <c r="AH100" s="4"/>
-    </row>
-    <row r="101" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I101" s="5">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="J101" s="5">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="K101" s="5">
         <v>0</v>
       </c>
       <c r="L101" s="5">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M101" s="5">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N101" s="5">
         <v>0</v>
       </c>
       <c r="O101" s="5">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="P101" s="5">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="Q101" s="5">
         <v>0</v>
       </c>
       <c r="R101" s="5">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S101" s="5">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T101" s="5">
         <v>0</v>
       </c>
       <c r="U101" s="5">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="V101" s="5">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="W101" s="5">
         <v>0</v>
       </c>
       <c r="X101" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y101" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z101" s="5">
         <v>0</v>
@@ -10067,34 +9733,31 @@
       <c r="AC101" s="4"/>
       <c r="AD101" s="4"/>
       <c r="AE101" s="4"/>
-      <c r="AF101" s="4"/>
-      <c r="AG101" s="4"/>
-      <c r="AH101" s="4"/>
-    </row>
-    <row r="102" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I102" s="5">
         <v>195</v>
@@ -10155,34 +9818,31 @@
       <c r="AC102" s="4"/>
       <c r="AD102" s="4"/>
       <c r="AE102" s="4"/>
-      <c r="AF102" s="4"/>
-      <c r="AG102" s="4"/>
-      <c r="AH102" s="4"/>
-    </row>
-    <row r="103" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I103" s="5">
         <v>1</v>
@@ -10241,34 +9901,31 @@
       <c r="AC103" s="4"/>
       <c r="AD103" s="4"/>
       <c r="AE103" s="4"/>
-      <c r="AF103" s="4"/>
-      <c r="AG103" s="4"/>
-      <c r="AH103" s="4"/>
-    </row>
-    <row r="104" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C104" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E104" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="F104" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I104" s="5">
         <v>21</v>
@@ -10280,10 +9937,10 @@
         <v>0</v>
       </c>
       <c r="L104" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M104" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N104" s="5">
         <v>0</v>
@@ -10314,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="X104" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y104" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Z104" s="5">
         <v>0</v>
@@ -10327,34 +9984,31 @@
       <c r="AC104" s="4"/>
       <c r="AD104" s="4"/>
       <c r="AE104" s="4"/>
-      <c r="AF104" s="4"/>
-      <c r="AG104" s="4"/>
-      <c r="AH104" s="4"/>
-    </row>
-    <row r="105" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I105" s="5">
         <v>73</v>
@@ -10415,49 +10069,46 @@
       <c r="AC105" s="4"/>
       <c r="AD105" s="4"/>
       <c r="AE105" s="4"/>
-      <c r="AF105" s="4"/>
-      <c r="AG105" s="4"/>
-      <c r="AH105" s="4"/>
-    </row>
-    <row r="106" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I106" s="5">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J106" s="5">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K106" s="5">
         <v>0</v>
       </c>
       <c r="L106" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M106" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N106" s="5">
         <v>0</v>
@@ -10481,19 +10132,19 @@
         <v>0</v>
       </c>
       <c r="U106" s="5">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V106" s="5">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W106" s="5">
         <v>0</v>
       </c>
       <c r="X106" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y106" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z106" s="5">
         <v>0</v>
@@ -10503,34 +10154,31 @@
       <c r="AC106" s="4"/>
       <c r="AD106" s="4"/>
       <c r="AE106" s="4"/>
-      <c r="AF106" s="4"/>
-      <c r="AG106" s="4"/>
-      <c r="AH106" s="4"/>
-    </row>
-    <row r="107" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C107" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="F107" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I107" s="5">
         <v>108</v>
@@ -10589,52 +10237,49 @@
       <c r="AC107" s="4"/>
       <c r="AD107" s="4"/>
       <c r="AE107" s="4"/>
-      <c r="AF107" s="4"/>
-      <c r="AG107" s="4"/>
-      <c r="AH107" s="4"/>
-    </row>
-    <row r="108" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I108" s="5">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J108" s="5">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K108" s="5">
         <v>0</v>
       </c>
       <c r="L108" s="5">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M108" s="5">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N108" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O108" s="5">
         <v>13</v>
@@ -10655,56 +10300,53 @@
         <v>0</v>
       </c>
       <c r="U108" s="5">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V108" s="5">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W108" s="5">
         <v>0</v>
       </c>
       <c r="X108" s="5">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="Y108" s="5">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Z108" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA108" s="7"/>
       <c r="AB108" s="7"/>
       <c r="AC108" s="4"/>
       <c r="AD108" s="4"/>
       <c r="AE108" s="4"/>
-      <c r="AF108" s="4"/>
-      <c r="AG108" s="4"/>
-      <c r="AH108" s="4"/>
-    </row>
-    <row r="109" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I109" s="5">
         <v>158</v>
@@ -10765,34 +10407,31 @@
       <c r="AC109" s="4"/>
       <c r="AD109" s="4"/>
       <c r="AE109" s="4"/>
-      <c r="AF109" s="4"/>
-      <c r="AG109" s="4"/>
-      <c r="AH109" s="4"/>
-    </row>
-    <row r="110" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I110" s="5">
         <v>144</v>
@@ -10853,34 +10492,31 @@
       <c r="AC110" s="4"/>
       <c r="AD110" s="4"/>
       <c r="AE110" s="4"/>
-      <c r="AF110" s="4"/>
-      <c r="AG110" s="4"/>
-      <c r="AH110" s="4"/>
-    </row>
-    <row r="111" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I111" s="5">
         <v>119</v>
@@ -10939,34 +10575,31 @@
       <c r="AC111" s="4"/>
       <c r="AD111" s="4"/>
       <c r="AE111" s="4"/>
-      <c r="AF111" s="4"/>
-      <c r="AG111" s="4"/>
-      <c r="AH111" s="4"/>
-    </row>
-    <row r="112" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I112" s="5">
         <v>38</v>
@@ -11027,49 +10660,46 @@
       <c r="AC112" s="4"/>
       <c r="AD112" s="4"/>
       <c r="AE112" s="4"/>
-      <c r="AF112" s="4"/>
-      <c r="AG112" s="4"/>
-      <c r="AH112" s="4"/>
-    </row>
-    <row r="113" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I113" s="5">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="J113" s="5">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="K113" s="5">
         <v>0</v>
       </c>
       <c r="L113" s="5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M113" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N113" s="5">
         <v>10</v>
@@ -11093,19 +10723,19 @@
         <v>10</v>
       </c>
       <c r="U113" s="5">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="V113" s="5">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="W113" s="5">
         <v>0</v>
       </c>
       <c r="X113" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y113" s="6">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="Y113" s="5">
+        <v>5</v>
       </c>
       <c r="Z113" s="5">
         <v>0</v>
@@ -11115,34 +10745,31 @@
       <c r="AC113" s="4"/>
       <c r="AD113" s="4"/>
       <c r="AE113" s="4"/>
-      <c r="AF113" s="4"/>
-      <c r="AG113" s="4"/>
-      <c r="AH113" s="4"/>
-    </row>
-    <row r="114" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I114" s="5">
         <v>206</v>
@@ -11201,34 +10828,31 @@
       <c r="AC114" s="4"/>
       <c r="AD114" s="4"/>
       <c r="AE114" s="4"/>
-      <c r="AF114" s="4"/>
-      <c r="AG114" s="4"/>
-      <c r="AH114" s="4"/>
-    </row>
-    <row r="115" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C115" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E115" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>220</v>
-      </c>
       <c r="F115" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I115" s="5">
         <v>130</v>
@@ -11287,34 +10911,31 @@
       <c r="AC115" s="4"/>
       <c r="AD115" s="4"/>
       <c r="AE115" s="4"/>
-      <c r="AF115" s="4"/>
-      <c r="AG115" s="4"/>
-      <c r="AH115" s="4"/>
-    </row>
-    <row r="116" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I116" s="5">
         <v>93</v>
@@ -11373,34 +10994,31 @@
       <c r="AC116" s="4"/>
       <c r="AD116" s="4"/>
       <c r="AE116" s="4"/>
-      <c r="AF116" s="4"/>
-      <c r="AG116" s="4"/>
-      <c r="AH116" s="4"/>
-    </row>
-    <row r="117" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I117" s="5">
         <v>33</v>
@@ -11459,18 +11077,12 @@
       <c r="AC117" s="4"/>
       <c r="AD117" s="4"/>
       <c r="AE117" s="4"/>
-      <c r="AF117" s="4"/>
-      <c r="AG117" s="4"/>
-      <c r="AH117" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="AH2:AH3"/>
+  <mergeCells count="23">
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="U1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="I2:K2"/>
